--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -1,195 +1,184 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12480"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28245" windowHeight="12480" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="login_info" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login_info" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>https://192.168.1.246:8443/CDGServer3/index.jsp</t>
-  </si>
-  <si>
-    <t>systemadmin</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -489,158 +478,159 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -694,11 +684,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -987,69 +972,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="51.25" customWidth="1"/>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>12345678</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28245" windowHeight="12480" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12480" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login_info" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -23,13 +24,25 @@
     <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -55,6 +68,14 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF9C0006"/>
       <sz val="11"/>
@@ -64,14 +85,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -94,6 +107,21 @@
       <charset val="0"/>
       <color rgb="FF9C6500"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,7 +151,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -132,7 +161,7 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="11"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,26 +174,10 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,7 +198,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,42 +228,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -251,13 +240,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,7 +324,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,49 +354,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,35 +372,80 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -406,30 +476,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -440,15 +486,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,15 +504,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -484,10 +512,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -496,141 +524,168 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -977,14 +1032,842 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B1" sqref="B1:B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col width="14.5" customWidth="1" style="1" min="1" max="1"/>
+    <col width="9" customWidth="1" style="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4142</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4036</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4077</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4109</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>spc820</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4158</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>SPC760</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4157</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>SPC760</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4107</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4194</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>服务器：SPC800 客户端：800</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4198</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4186</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>SPC820</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4128</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4146</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>V500R005C00SPC820-611</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4106</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4101</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>服务器：SPC800 客户端：800</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4094</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>SPC810</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4096</t>
+        </is>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>服务器：SPC760 客户端：760</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4132</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="inlineStr">
+        <is>
+          <t>DLP-3752</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="inlineStr">
+        <is>
+          <t>DLP-3787</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="inlineStr">
+        <is>
+          <t>DLP-3778</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="inlineStr">
+        <is>
+          <t>DLP-3917</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4213</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>SPC800</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4113</t>
+        </is>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4148</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>V500R005C00SPC760</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4156</t>
+        </is>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="inlineStr">
+        <is>
+          <t>DLP-3902</t>
+        </is>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>800及其他</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4046</t>
+        </is>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4184</t>
+        </is>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>820-b017</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="inlineStr">
+        <is>
+          <t>LINUX-295</t>
+        </is>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>3.6.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4084</t>
+        </is>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>SPC760</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4082</t>
+        </is>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>spc760</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="inlineStr">
+        <is>
+          <t>DLP-3675</t>
+        </is>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="inlineStr">
+        <is>
+          <t>DLP-3971</t>
+        </is>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4208</t>
+        </is>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="inlineStr">
+        <is>
+          <t>LINUX-300</t>
+        </is>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4035</t>
+        </is>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4076</t>
+        </is>
+      </c>
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4131</t>
+        </is>
+      </c>
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>服务器CDG 800、客户端800、驱动719</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4140</t>
+        </is>
+      </c>
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>服务器：SPC820客户端：820</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="10" t="inlineStr">
+        <is>
+          <t>DLP-4019</t>
+        </is>
+      </c>
+      <c r="B40" s="5" t="inlineStr">
+        <is>
+          <t>SPC820</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="10" t="inlineStr">
+        <is>
+          <t>DLP-4093</t>
+        </is>
+      </c>
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>服务端版本：V500R005C00SPC820 客户端版本：V500R005C00SPC820</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="10" t="inlineStr">
+        <is>
+          <t>DLP-4042</t>
+        </is>
+      </c>
+      <c r="B42" s="5" t="inlineStr">
+        <is>
+          <t>SPC820</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="10" t="inlineStr">
+        <is>
+          <t>DLP-4168</t>
+        </is>
+      </c>
+      <c r="B43" s="5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="10" t="inlineStr">
+        <is>
+          <t>DLP-4227</t>
+        </is>
+      </c>
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>820-b017</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="10" t="inlineStr">
+        <is>
+          <t>DLP-4167</t>
+        </is>
+      </c>
+      <c r="B45" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="10" t="inlineStr">
+        <is>
+          <t>DLP-4190</t>
+        </is>
+      </c>
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>820-b017</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4196</t>
+        </is>
+      </c>
+      <c r="B47" s="5" t="inlineStr">
+        <is>
+          <t>820-b017</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="inlineStr">
+        <is>
+          <t>DLP-4019</t>
+        </is>
+      </c>
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>SPC820</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="10" t="inlineStr">
+        <is>
+          <t>DLP-4092</t>
+        </is>
+      </c>
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="10" t="inlineStr">
+        <is>
+          <t>DLP-4044</t>
+        </is>
+      </c>
+      <c r="B50" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="10" t="inlineStr">
+        <is>
+          <t>DLP-4041</t>
+        </is>
+      </c>
+      <c r="B51" s="5" t="inlineStr">
+        <is>
+          <t>服务器：SPC810 客户端：810</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="10" t="inlineStr">
+        <is>
+          <t>DLP-3990</t>
+        </is>
+      </c>
+      <c r="B52" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="10" t="inlineStr">
+        <is>
+          <t>DLP-4020</t>
+        </is>
+      </c>
+      <c r="B53" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="10" t="inlineStr">
+        <is>
+          <t>DLP-3938</t>
+        </is>
+      </c>
+      <c r="B54" s="5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="10" t="inlineStr">
+        <is>
+          <t>DLP-3877</t>
+        </is>
+      </c>
+      <c r="B55" s="5" t="inlineStr">
+        <is>
+          <t>SPC820</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="inlineStr">
+        <is>
+          <t>DLP-3969</t>
+        </is>
+      </c>
+      <c r="B56" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="inlineStr">
+        <is>
+          <t>DLP-3775</t>
+        </is>
+      </c>
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="10" t="inlineStr">
+        <is>
+          <t>DLP-3843</t>
+        </is>
+      </c>
+      <c r="B58" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="10" t="inlineStr">
+        <is>
+          <t>DLP-3911</t>
+        </is>
+      </c>
+      <c r="B59" s="5" t="inlineStr">
+        <is>
+          <t>spc800</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="10" t="inlineStr">
+        <is>
+          <t>DLP-3931</t>
+        </is>
+      </c>
+      <c r="B60" s="5" t="inlineStr">
+        <is>
+          <t>服务端版本：820，客户端版本：820、760；</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="10" t="inlineStr">
+        <is>
+          <t>DLP-3895</t>
+        </is>
+      </c>
+      <c r="B61" s="5" t="inlineStr">
+        <is>
+          <t>SPC 800</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="10" t="inlineStr">
+        <is>
+          <t>DLP-3833</t>
+        </is>
+      </c>
+      <c r="B62" s="5" t="inlineStr">
+        <is>
+          <t>SPC820</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="10" t="inlineStr">
+        <is>
+          <t>DLP-3878</t>
+        </is>
+      </c>
+      <c r="B63" s="5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="inlineStr">
+        <is>
+          <t>DLP-3857</t>
+        </is>
+      </c>
+      <c r="B64" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="10" t="inlineStr">
+        <is>
+          <t>DLP-3816</t>
+        </is>
+      </c>
+      <c r="B65" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="10" t="inlineStr">
+        <is>
+          <t>DLP-3743</t>
+        </is>
+      </c>
+      <c r="B66" s="5" t="inlineStr">
+        <is>
+          <t>SPC820 717驱动</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="10" t="inlineStr">
+        <is>
+          <t>DLP-3696</t>
+        </is>
+      </c>
+      <c r="B67" s="5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="10" t="inlineStr">
+        <is>
+          <t>DLP-3735</t>
+        </is>
+      </c>
+      <c r="B68" s="5" t="inlineStr">
+        <is>
+          <t>spc760</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A18" tooltip="http://fracas.esafenet.com:8080/browse/DLP-3752" display="DLP-3752" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A19" tooltip="http://fracas.esafenet.com:8080/browse/DLP-3752" display="DLP-3787" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A20" tooltip="http://fracas.esafenet.com:8080/browse/DLP-3778" display="DLP-3778" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A21" tooltip="http://fracas.esafenet.com:8080/browse/DLP-3752" display="DLP-3917" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A36" display="DLP-4035" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
@@ -996,14 +1879,491 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>spc820</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>SPC760</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>SPC760</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>服务器：SPC800 客户端：800</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>SPC820</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>V500R005C00SPC820-611</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>服务器：SPC800 客户端：800</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>SPC810</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>服务器：SPC760 客户端：760</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>SPC800</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>V500R005C00SPC760</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>800及其他</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>820-b017</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>3.6.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>SPC760</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>spc760</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>服务器CDG 800、客户端800、驱动719</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>服务器：SPC820客户端：820</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>SPC820</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>服务端版本：V500R005C00SPC820 客户端版本：V500R005C00SPC820</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>SPC820</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>820-b017</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>820-b017</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>820-b017</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>SPC820</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>服务器：SPC810 客户端：810</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="inlineStr">
+        <is>
+          <t>SPC820</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="inlineStr">
+        <is>
+          <t>spc800</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="inlineStr">
+        <is>
+          <t>服务端版本：820，客户端版本：820、760；</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="inlineStr">
+        <is>
+          <t>SPC 800</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="inlineStr">
+        <is>
+          <t>SPC820</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="inlineStr">
+        <is>
+          <t>SPC820 717驱动</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="inlineStr">
+        <is>
+          <t>spc760</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
@@ -1018,11 +2378,1767 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col width="14.5" customWidth="1" style="1" min="1" max="1"/>
+    <col width="33.125" customWidth="1" style="2" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>DLP-4524</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>DLP-4516</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>V500R005C00SPC820 B017</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>DLP-4478</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>SPC820</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>DLP-4457</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>DLP-4403</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>820-b018</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>DLP-4399</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>DLP-4389</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>DLP-4388</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>DLP-4387</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>DLP-4524</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>DLP-4114</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>DLP-4111</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>V500R005C00SPC820-611</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>DLP-4104</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>DLP-4098</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>V500R005C00SPC820</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>DLP-4093</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>服务端版本：V500R005C00SPC820 客户端版本：V500R005C00SPC820</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>DLP-4023</t>
+        </is>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3956</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3957</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3961</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3966</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>smartsec800</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3976</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>710 ，760</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>DLP-4012</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>DLP-4003</t>
+        </is>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>SPC820</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>DLP-4002</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>SPC820</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>DLP-4524</t>
+        </is>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3900</t>
+        </is>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3724</t>
+        </is>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>smartsec800</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3729</t>
+        </is>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>V500R006C00SPC820</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3914</t>
+        </is>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3912</t>
+        </is>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3903</t>
+        </is>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>SPC810</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3893</t>
+        </is>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3782</t>
+        </is>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3796</t>
+        </is>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3788</t>
+        </is>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3781</t>
+        </is>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>DLP-3103</t>
+        </is>
+      </c>
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3104</t>
+        </is>
+      </c>
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3106</t>
+        </is>
+      </c>
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3107</t>
+        </is>
+      </c>
+      <c r="B40" s="5" t="inlineStr">
+        <is>
+          <t>760版本</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3108</t>
+        </is>
+      </c>
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3109</t>
+        </is>
+      </c>
+      <c r="B42" s="5" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3110</t>
+        </is>
+      </c>
+      <c r="B43" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3111</t>
+        </is>
+      </c>
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3117</t>
+        </is>
+      </c>
+      <c r="B45" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3122</t>
+        </is>
+      </c>
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>801</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3123</t>
+        </is>
+      </c>
+      <c r="B47" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3125</t>
+        </is>
+      </c>
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3126</t>
+        </is>
+      </c>
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3133</t>
+        </is>
+      </c>
+      <c r="B50" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3134</t>
+        </is>
+      </c>
+      <c r="B51" s="5" t="inlineStr">
+        <is>
+          <t>SPC800</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3142</t>
+        </is>
+      </c>
+      <c r="B52" s="5" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3150</t>
+        </is>
+      </c>
+      <c r="B53" s="5" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3152</t>
+        </is>
+      </c>
+      <c r="B54" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3159</t>
+        </is>
+      </c>
+      <c r="B55" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3161</t>
+        </is>
+      </c>
+      <c r="B56" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3163</t>
+        </is>
+      </c>
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3164</t>
+        </is>
+      </c>
+      <c r="B58" s="5" t="inlineStr">
+        <is>
+          <t>SPC800</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3165</t>
+        </is>
+      </c>
+      <c r="B59" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3167</t>
+        </is>
+      </c>
+      <c r="B60" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3168</t>
+        </is>
+      </c>
+      <c r="B61" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3171</t>
+        </is>
+      </c>
+      <c r="B62" s="5" t="inlineStr">
+        <is>
+          <t>SPC760</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3172</t>
+        </is>
+      </c>
+      <c r="B63" s="5" t="inlineStr">
+        <is>
+          <t>SPC760</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3177</t>
+        </is>
+      </c>
+      <c r="B64" s="5" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3179</t>
+        </is>
+      </c>
+      <c r="B65" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3184</t>
+        </is>
+      </c>
+      <c r="B66" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3186</t>
+        </is>
+      </c>
+      <c r="B67" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3187</t>
+        </is>
+      </c>
+      <c r="B68" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3190</t>
+        </is>
+      </c>
+      <c r="B69" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3192</t>
+        </is>
+      </c>
+      <c r="B70" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3193</t>
+        </is>
+      </c>
+      <c r="B71" s="5" t="inlineStr">
+        <is>
+          <t>SPC800</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3196</t>
+        </is>
+      </c>
+      <c r="B72" s="5" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3197</t>
+        </is>
+      </c>
+      <c r="B73" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3200</t>
+        </is>
+      </c>
+      <c r="B74" s="5" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3202</t>
+        </is>
+      </c>
+      <c r="B75" s="5" t="inlineStr">
+        <is>
+          <t>SPC800(SPC760)</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3205</t>
+        </is>
+      </c>
+      <c r="B76" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3210</t>
+        </is>
+      </c>
+      <c r="B77" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3215</t>
+        </is>
+      </c>
+      <c r="B78" s="5" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3218</t>
+        </is>
+      </c>
+      <c r="B79" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3219</t>
+        </is>
+      </c>
+      <c r="B80" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3233</t>
+        </is>
+      </c>
+      <c r="B81" s="5" t="inlineStr">
+        <is>
+          <t>MSI810</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3242</t>
+        </is>
+      </c>
+      <c r="B82" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3250</t>
+        </is>
+      </c>
+      <c r="B83" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3252</t>
+        </is>
+      </c>
+      <c r="B84" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3253</t>
+        </is>
+      </c>
+      <c r="B85" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3256</t>
+        </is>
+      </c>
+      <c r="B86" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3266</t>
+        </is>
+      </c>
+      <c r="B87" s="5" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3267</t>
+        </is>
+      </c>
+      <c r="B88" s="5" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3269</t>
+        </is>
+      </c>
+      <c r="B89" s="5" t="inlineStr">
+        <is>
+          <t>SPC800</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3270</t>
+        </is>
+      </c>
+      <c r="B90" s="5" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3271</t>
+        </is>
+      </c>
+      <c r="B91" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3272</t>
+        </is>
+      </c>
+      <c r="B92" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3280</t>
+        </is>
+      </c>
+      <c r="B93" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3281</t>
+        </is>
+      </c>
+      <c r="B94" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3282</t>
+        </is>
+      </c>
+      <c r="B95" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3285</t>
+        </is>
+      </c>
+      <c r="B96" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3289</t>
+        </is>
+      </c>
+      <c r="B97" s="5" t="inlineStr">
+        <is>
+          <t>spc730</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3310</t>
+        </is>
+      </c>
+      <c r="B98" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3311</t>
+        </is>
+      </c>
+      <c r="B99" s="5" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3322</t>
+        </is>
+      </c>
+      <c r="B100" s="5" t="inlineStr">
+        <is>
+          <t>spc760</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3339</t>
+        </is>
+      </c>
+      <c r="B101" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3357</t>
+        </is>
+      </c>
+      <c r="B102" s="5" t="inlineStr">
+        <is>
+          <t>SPC800</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3361</t>
+        </is>
+      </c>
+      <c r="B103" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3368</t>
+        </is>
+      </c>
+      <c r="B104" s="5" t="inlineStr">
+        <is>
+          <t>SPC700</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3376</t>
+        </is>
+      </c>
+      <c r="B105" s="5" t="inlineStr">
+        <is>
+          <t>V500R005C00SPC800</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3385</t>
+        </is>
+      </c>
+      <c r="B106" s="5" t="inlineStr">
+        <is>
+          <t>SPC800 v2.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3386</t>
+        </is>
+      </c>
+      <c r="B107" s="5" t="inlineStr">
+        <is>
+          <t>SPC800</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3396</t>
+        </is>
+      </c>
+      <c r="B108" s="5" t="inlineStr">
+        <is>
+          <t>SPC760</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3413</t>
+        </is>
+      </c>
+      <c r="B109" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3427</t>
+        </is>
+      </c>
+      <c r="B110" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3435</t>
+        </is>
+      </c>
+      <c r="B111" s="5" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3446</t>
+        </is>
+      </c>
+      <c r="B112" s="5" t="inlineStr">
+        <is>
+          <t>spc730</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3451</t>
+        </is>
+      </c>
+      <c r="B113" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3457</t>
+        </is>
+      </c>
+      <c r="B114" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3516</t>
+        </is>
+      </c>
+      <c r="B115" s="5" t="inlineStr">
+        <is>
+          <t>V500R005C00SPC800</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3523</t>
+        </is>
+      </c>
+      <c r="B116" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3540</t>
+        </is>
+      </c>
+      <c r="B117" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3545</t>
+        </is>
+      </c>
+      <c r="B118" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3546</t>
+        </is>
+      </c>
+      <c r="B119" s="5" t="inlineStr">
+        <is>
+          <t>710</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3557</t>
+        </is>
+      </c>
+      <c r="B120" s="5" t="inlineStr">
+        <is>
+          <t>服务器：SPC800 客户端：800</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3560</t>
+        </is>
+      </c>
+      <c r="B121" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3562</t>
+        </is>
+      </c>
+      <c r="B122" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3618</t>
+        </is>
+      </c>
+      <c r="B123" s="5" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3624</t>
+        </is>
+      </c>
+      <c r="B124" s="5" t="inlineStr">
+        <is>
+          <t>spc800</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3629</t>
+        </is>
+      </c>
+      <c r="B125" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3632</t>
+        </is>
+      </c>
+      <c r="B126" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3644</t>
+        </is>
+      </c>
+      <c r="B127" s="5" t="inlineStr">
+        <is>
+          <t>V500R006C00SPC820</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3645</t>
+        </is>
+      </c>
+      <c r="B128" s="5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3654</t>
+        </is>
+      </c>
+      <c r="B129" s="5" t="inlineStr">
+        <is>
+          <t>SPC800</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3704</t>
+        </is>
+      </c>
+      <c r="B130" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="5" t="inlineStr">
+        <is>
+          <t>DLP-3715</t>
+        </is>
+      </c>
+      <c r="B131" s="5" t="inlineStr">
+        <is>
+          <t>smartsec800</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="5" t="inlineStr">
+        <is>
+          <t>DLP-4327</t>
+        </is>
+      </c>
+      <c r="B132" s="5" t="inlineStr">
+        <is>
+          <t>SPC820</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="8" t="inlineStr">
+        <is>
+          <t>DLP-4325</t>
+        </is>
+      </c>
+      <c r="B133" s="5" t="inlineStr">
+        <is>
+          <t>SPC820</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="8" t="inlineStr">
+        <is>
+          <t>DLP-4324</t>
+        </is>
+      </c>
+      <c r="B134" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="8" t="inlineStr">
+        <is>
+          <t>DLP-4320</t>
+        </is>
+      </c>
+      <c r="B135" s="5" t="inlineStr">
+        <is>
+          <t>SPC800 中间件B011</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="8" t="inlineStr">
+        <is>
+          <t>DLP-4317</t>
+        </is>
+      </c>
+      <c r="B136" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="8" t="inlineStr">
+        <is>
+          <t>DLP-4307</t>
+        </is>
+      </c>
+      <c r="B137" s="5" t="inlineStr">
+        <is>
+          <t>820-b017</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="8" t="inlineStr">
+        <is>
+          <t>DLP-4299</t>
+        </is>
+      </c>
+      <c r="B138" s="5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="8" t="inlineStr">
+        <is>
+          <t>DLP-4276</t>
+        </is>
+      </c>
+      <c r="B139" s="5" t="inlineStr">
+        <is>
+          <t>服务器：SPC760 客户端：760</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="8" t="inlineStr">
+        <is>
+          <t>DLP-4255</t>
+        </is>
+      </c>
+      <c r="B140" s="5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="8" t="inlineStr">
+        <is>
+          <t>DLP-4251</t>
+        </is>
+      </c>
+      <c r="B141" s="5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="8" t="inlineStr">
+        <is>
+          <t>DLP-4166</t>
+        </is>
+      </c>
+      <c r="B142" s="5" t="inlineStr">
+        <is>
+          <t>SPC 820</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="8" t="inlineStr">
+        <is>
+          <t>DLP-4281</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="8" t="inlineStr">
+        <is>
+          <t>DLP-4218</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A38" display="DLP-3104" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A132" display="DLP-4327" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>